--- a/website/file/stock_template.xlsx
+++ b/website/file/stock_template.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Working/Working/tienpd3.github.io/website/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE30F5F-7926-8B48-A1D4-A38910E036B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B466514-50A6-2C4E-87B1-6AD16B5F427A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4720" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{5CAC4BF7-E1FA-2843-8AA4-0D9B30644349}"/>
   </bookViews>
   <sheets>
     <sheet name="Định giá" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
   <si>
     <t>CỐ PHIẾU:</t>
   </si>
@@ -364,13 +363,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0&quot; tỷ&quot;;[Red]\-#,##0.0&quot; tỷ&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);[Red]\-#,##0.0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0,,,\ &quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0,,,\ &quot; tỷ&quot;"/>
     <numFmt numFmtId="169" formatCode="#,##0.00,,,\ &quot; tỷ&quot;"/>
     <numFmt numFmtId="170" formatCode="0%_);[Red]\-0%"/>
   </numFmts>
@@ -441,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,10 +454,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="11"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -783,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05457745-5968-AA42-8580-126BA301200F}">
   <dimension ref="A4:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,21 +833,11 @@
         <v>1</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="D6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -883,23 +866,23 @@
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="14" t="e">
+      <c r="D8" s="12" t="e">
         <f t="shared" ref="D8:G8" si="0">IF(E7="", "", (100%*(D7-E7)/E7))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E8" s="14" t="e">
+      <c r="E8" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F8" s="14" t="e">
+      <c r="F8" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G8" s="14" t="e">
+      <c r="G8" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H8" s="14" t="str">
+      <c r="H8" s="12" t="str">
         <f>IF(I7="", "", (100%*(H7-I7)/I7))</f>
         <v/>
       </c>
@@ -928,23 +911,23 @@
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="14" t="e">
+      <c r="D10" s="12" t="e">
         <f t="shared" ref="D10:G10" si="1">IF(E9="", "", (100%*(D9-E9)/E9))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E10" s="14" t="e">
+      <c r="E10" s="12" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F10" s="14" t="e">
+      <c r="F10" s="12" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G10" s="14" t="e">
+      <c r="G10" s="12" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H10" s="14" t="str">
+      <c r="H10" s="12" t="str">
         <f>IF(I9="", "", (100%*(H9-I9)/I9))</f>
         <v/>
       </c>
@@ -1073,11 +1056,11 @@
         <v>37</v>
       </c>
       <c r="D17" s="6" t="e">
-        <f>(D32/D28)*100%</f>
+        <f>(D32/D28)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="E17" s="6" t="e">
-        <f t="shared" ref="E17:H17" si="2">(E32/E28)*100%</f>
+        <f t="shared" ref="E17:H17" si="2">(E32/E28)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="F17" s="6" t="e">
@@ -1101,11 +1084,11 @@
         <v>39</v>
       </c>
       <c r="D18" s="6" t="e">
-        <f>(D29/D28)*100%</f>
+        <f>(D29/D28)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="E18" s="6" t="e">
-        <f t="shared" ref="E18:H18" si="3">(E29/E28)*100%</f>
+        <f t="shared" ref="E18:H18" si="3">(E29/E28)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="F18" s="6" t="e">
@@ -1129,11 +1112,11 @@
         <v>104</v>
       </c>
       <c r="D19" s="6" t="e">
-        <f>(D24/D25)*100%</f>
+        <f>(D24/D25)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="E19" s="6" t="e">
-        <f t="shared" ref="E19:H19" si="4">(E24/E25)*100%</f>
+        <f t="shared" ref="E19:H19" si="4">(E24/E25)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="F19" s="6" t="e">
@@ -1157,11 +1140,11 @@
         <v>41</v>
       </c>
       <c r="D20" s="6" t="e">
-        <f>(D24/D23)*100%</f>
+        <f>(D24/D23)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="E20" s="6" t="e">
-        <f t="shared" ref="E20:H20" si="5">(E24/E23)*100%</f>
+        <f t="shared" ref="E20:H20" si="5">(E24/E23)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="F20" s="6" t="e">
@@ -1182,25 +1165,25 @@
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="e">
-        <f>(D32/D25)*100%</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E21" t="e">
-        <f t="shared" ref="E21:H21" si="6">(E32/E25)*100%</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F21" t="e">
+        <v>34</v>
+      </c>
+      <c r="D21" s="6" t="e">
+        <f>(D32/D25)*100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" s="6" t="e">
+        <f t="shared" ref="E21:H21" si="6">(E32/E25)*100</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G21" t="e">
+      <c r="G21" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H21" t="e">
+      <c r="H21" s="6" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
@@ -1214,19 +1197,19 @@
       <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1234,19 +1217,19 @@
       <c r="A24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1254,19 +1237,19 @@
       <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1274,33 +1257,33 @@
       <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="13" t="e">
+      <c r="D27" s="11" t="e">
         <f>D32/D9</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E27" s="13" t="e">
+      <c r="E27" s="11" t="e">
         <f t="shared" ref="E27:H27" si="7">E32/E9</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F27" s="13" t="e">
+      <c r="F27" s="11" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G27" s="13" t="e">
+      <c r="G27" s="11" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H27" s="13" t="e">
+      <c r="H27" s="11" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
@@ -1309,19 +1292,19 @@
       <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="11" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1329,19 +1312,19 @@
       <c r="A29" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1354,19 +1337,19 @@
       <c r="A32" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1374,32 +1357,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE102C2C-8A89-694F-A0B3-2E92FC8A9A7A}">
-  <dimension ref="C6:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="12">
-        <v>123131739821783</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="11">
-        <v>1000000000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/website/file/stock_template.xlsx
+++ b/website/file/stock_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Working/Working/tienpd3.github.io/website/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B466514-50A6-2C4E-87B1-6AD16B5F427A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F2C15A-245B-4A44-B818-B60901780F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4720" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{5CAC4BF7-E1FA-2843-8AA4-0D9B30644349}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t>CỐ PHIẾU:</t>
   </si>
@@ -44,72 +44,6 @@
     <t>1. CÁC CHỈ SỐ TÀI CHÍNH:</t>
   </si>
   <si>
-    <t>EPS NĂM</t>
-  </si>
-  <si>
-    <t>EPS QUÝ</t>
-  </si>
-  <si>
-    <t>#FY1</t>
-  </si>
-  <si>
-    <t>#FY3</t>
-  </si>
-  <si>
-    <t>#FY2</t>
-  </si>
-  <si>
-    <t>#FY0</t>
-  </si>
-  <si>
-    <t>#FY4</t>
-  </si>
-  <si>
-    <t>#Q0</t>
-  </si>
-  <si>
-    <t>#Q1</t>
-  </si>
-  <si>
-    <t>#Q2</t>
-  </si>
-  <si>
-    <t>#Q3</t>
-  </si>
-  <si>
-    <t>#Q4</t>
-  </si>
-  <si>
-    <t>#EPSFYVal0</t>
-  </si>
-  <si>
-    <t>#EPSFYVal1</t>
-  </si>
-  <si>
-    <t>#EPSFYVal2</t>
-  </si>
-  <si>
-    <t>#EPSFYVal3</t>
-  </si>
-  <si>
-    <t>#EPSFYVal4</t>
-  </si>
-  <si>
-    <t>#EPSQVal0</t>
-  </si>
-  <si>
-    <t>#EPSQVal1</t>
-  </si>
-  <si>
-    <t>#EPSQVal2</t>
-  </si>
-  <si>
-    <t>#EPSQVal3</t>
-  </si>
-  <si>
-    <t>#EPSQVal4</t>
-  </si>
-  <si>
     <t>#Symbol</t>
   </si>
   <si>
@@ -191,162 +125,12 @@
     <t>LNG</t>
   </si>
   <si>
-    <t>#LNGQVal0</t>
-  </si>
-  <si>
-    <t>#LNGQVal4</t>
-  </si>
-  <si>
-    <t>#LNGQVal3</t>
-  </si>
-  <si>
-    <t>#LNGQVal2</t>
-  </si>
-  <si>
-    <t>#LNGQVal1</t>
-  </si>
-  <si>
-    <t>#DTTQVal0</t>
-  </si>
-  <si>
-    <t>#DTTQVal4</t>
-  </si>
-  <si>
-    <t>#DTTQVal3</t>
-  </si>
-  <si>
-    <t>#DTTQVal2</t>
-  </si>
-  <si>
-    <t>#DTTQVal1</t>
-  </si>
-  <si>
-    <t>#VCSHQVal0</t>
-  </si>
-  <si>
-    <t>#VCSHQVal4</t>
-  </si>
-  <si>
-    <t>#VCSHQVal3</t>
-  </si>
-  <si>
-    <t>#VCSHQVal2</t>
-  </si>
-  <si>
-    <t>#VCSHQVal1</t>
-  </si>
-  <si>
-    <t>#NOQVal0</t>
-  </si>
-  <si>
-    <t>#NOQVal4</t>
-  </si>
-  <si>
-    <t>#NOQVal3</t>
-  </si>
-  <si>
-    <t>#NOQVal2</t>
-  </si>
-  <si>
-    <t>#NOQVal1</t>
-  </si>
-  <si>
-    <t>#TTSQVal0</t>
-  </si>
-  <si>
-    <t>#TTSQVal4</t>
-  </si>
-  <si>
-    <t>#TTSQVal3</t>
-  </si>
-  <si>
-    <t>#TTSQVal2</t>
-  </si>
-  <si>
-    <t>#TTSQVal1</t>
-  </si>
-  <si>
-    <t>#ROAQVal0</t>
-  </si>
-  <si>
-    <t>#ROAQVal1</t>
-  </si>
-  <si>
-    <t>#ROAQVal2</t>
-  </si>
-  <si>
-    <t>#ROAQVal3</t>
-  </si>
-  <si>
-    <t>#ROAQVal4</t>
-  </si>
-  <si>
-    <t>#ROEQVal0</t>
-  </si>
-  <si>
-    <t>#ROEQVal1</t>
-  </si>
-  <si>
-    <t>#ROEQVal2</t>
-  </si>
-  <si>
-    <t>#ROEQVal3</t>
-  </si>
-  <si>
-    <t>#ROEQVal4</t>
-  </si>
-  <si>
-    <t>#PEQVal0</t>
-  </si>
-  <si>
-    <t>#PEQVal1</t>
-  </si>
-  <si>
-    <t>#PEQVal2</t>
-  </si>
-  <si>
-    <t>#PEQVal3</t>
-  </si>
-  <si>
-    <t>#PEQVal4</t>
-  </si>
-  <si>
-    <t>#PBQVal0</t>
-  </si>
-  <si>
-    <t>#PBQVal1</t>
-  </si>
-  <si>
-    <t>#PBQVal2</t>
-  </si>
-  <si>
-    <t>#PBQVal3</t>
-  </si>
-  <si>
-    <t>#PBQVal4</t>
-  </si>
-  <si>
     <t xml:space="preserve">KẾT QUẢ HOẠT ĐỘNG KINH DOANH </t>
   </si>
   <si>
     <t xml:space="preserve">LNST </t>
   </si>
   <si>
-    <t>#LNSTQVal0</t>
-  </si>
-  <si>
-    <t>#LNSTQVal1</t>
-  </si>
-  <si>
-    <t>#LNSTQVal2</t>
-  </si>
-  <si>
-    <t>#LNSTQVal3</t>
-  </si>
-  <si>
-    <t>#LNSTQVal4</t>
-  </si>
-  <si>
     <t>LNST/CPLH</t>
   </si>
   <si>
@@ -357,6 +141,174 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>#FYQ0</t>
+  </si>
+  <si>
+    <t>#FYQ1</t>
+  </si>
+  <si>
+    <t>#FYQ2</t>
+  </si>
+  <si>
+    <t>#FYQ3</t>
+  </si>
+  <si>
+    <t>#FYQ4</t>
+  </si>
+  <si>
+    <t>#PBVal0</t>
+  </si>
+  <si>
+    <t>#PEVal0</t>
+  </si>
+  <si>
+    <t>#PBVal1</t>
+  </si>
+  <si>
+    <t>#PBVal2</t>
+  </si>
+  <si>
+    <t>#PBVal3</t>
+  </si>
+  <si>
+    <t>#PBVal4</t>
+  </si>
+  <si>
+    <t>#PEVal1</t>
+  </si>
+  <si>
+    <t>#PEVal2</t>
+  </si>
+  <si>
+    <t>#PEVal3</t>
+  </si>
+  <si>
+    <t>#PEVal4</t>
+  </si>
+  <si>
+    <t>#ROAVal0</t>
+  </si>
+  <si>
+    <t>#ROAVal1</t>
+  </si>
+  <si>
+    <t>#ROAVal2</t>
+  </si>
+  <si>
+    <t>#ROAVal3</t>
+  </si>
+  <si>
+    <t>#ROAVal4</t>
+  </si>
+  <si>
+    <t>#TTSVal0</t>
+  </si>
+  <si>
+    <t>#TTSVal1</t>
+  </si>
+  <si>
+    <t>#TTSVal2</t>
+  </si>
+  <si>
+    <t>#TTSVal3</t>
+  </si>
+  <si>
+    <t>#TTSVal4</t>
+  </si>
+  <si>
+    <t>#NOVal0</t>
+  </si>
+  <si>
+    <t>#NOVal1</t>
+  </si>
+  <si>
+    <t>#NOVal2</t>
+  </si>
+  <si>
+    <t>#NOVal3</t>
+  </si>
+  <si>
+    <t>#NOVal4</t>
+  </si>
+  <si>
+    <t>#VCSHVal0</t>
+  </si>
+  <si>
+    <t>#VCSHVal1</t>
+  </si>
+  <si>
+    <t>#VCSHVal2</t>
+  </si>
+  <si>
+    <t>#VCSHVal3</t>
+  </si>
+  <si>
+    <t>#VCSHVal4</t>
+  </si>
+  <si>
+    <t>#DTTVal0</t>
+  </si>
+  <si>
+    <t>#DTTVal1</t>
+  </si>
+  <si>
+    <t>#DTTVal2</t>
+  </si>
+  <si>
+    <t>#DTTVal3</t>
+  </si>
+  <si>
+    <t>#DTTVal4</t>
+  </si>
+  <si>
+    <t>#LNGVal0</t>
+  </si>
+  <si>
+    <t>#LNGVal1</t>
+  </si>
+  <si>
+    <t>#LNGVal2</t>
+  </si>
+  <si>
+    <t>#LNGVal3</t>
+  </si>
+  <si>
+    <t>#LNGVal4</t>
+  </si>
+  <si>
+    <t>#LNSTVal0</t>
+  </si>
+  <si>
+    <t>#LNSTVal1</t>
+  </si>
+  <si>
+    <t>#LNSTVal2</t>
+  </si>
+  <si>
+    <t>#LNSTVal3</t>
+  </si>
+  <si>
+    <t>#LNSTVal4</t>
+  </si>
+  <si>
+    <t>EPS #EPSTitle</t>
+  </si>
+  <si>
+    <t>#EPSVal0</t>
+  </si>
+  <si>
+    <t>#EPSVal1</t>
+  </si>
+  <si>
+    <t>#EPSVal2</t>
+  </si>
+  <si>
+    <t>#EPSVal3</t>
+  </si>
+  <si>
+    <t>#EPSVal4</t>
   </si>
 </sst>
 </file>
@@ -368,8 +320,8 @@
     <numFmt numFmtId="164" formatCode="#,##0.0&quot; tỷ&quot;;[Red]\-#,##0.0&quot; tỷ&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);[Red]\-#,##0.0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00,,,\ &quot; tỷ&quot;"/>
-    <numFmt numFmtId="170" formatCode="0%_);[Red]\-0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00,,,\ &quot; tỷ&quot;"/>
+    <numFmt numFmtId="168" formatCode="0%_);[Red]\-0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -454,8 +406,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -774,17 +726,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05457745-5968-AA42-8580-126BA301200F}">
-  <dimension ref="A4:J32"/>
+  <dimension ref="A4:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E18" sqref="E18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="4" max="8" width="13.83203125" customWidth="1"/>
+    <col min="4" max="8" width="15.33203125" customWidth="1"/>
     <col min="10" max="10" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -793,39 +745,29 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -841,30 +783,30 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D8" s="12" t="e">
         <f t="shared" ref="D8:G8" si="0">IF(E7="", "", (100%*(D7-E7)/E7))</f>
@@ -889,468 +831,413 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="12" t="e">
-        <f t="shared" ref="D10:G10" si="1">IF(E9="", "", (100%*(D9-E9)/E9))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F10" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G10" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H10" s="12" t="str">
-        <f>IF(I9="", "", (100%*(H9-I9)/I9))</f>
-        <v/>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="2"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>90</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="12" t="e">
+        <f>(D30/D23)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" s="12" t="e">
+        <f t="shared" ref="E14:H14" si="1">(E30/E23)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G14" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>80</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="12" t="e">
+        <f>(D30/D26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" s="12" t="e">
+        <f t="shared" ref="E15:H15" si="2">(E30/E26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G15" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H15" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>85</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="12" t="e">
+        <f>(D27/D26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" s="12" t="e">
+        <f t="shared" ref="E16:H16" si="3">(E27/E26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G16" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="6" t="e">
-        <f>(D32/D28)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E17" s="6" t="e">
-        <f t="shared" ref="E17:H17" si="2">(E32/E28)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F17" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G17" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H17" s="6" t="e">
-        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="D17" s="12" t="e">
+        <f>(D22/D23)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" s="12" t="e">
+        <f t="shared" ref="E17:H17" si="4">(E22/E23)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G17" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H17" s="12" t="e">
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="6" t="e">
-        <f>(D29/D28)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E18" s="6" t="e">
-        <f t="shared" ref="E18:H18" si="3">(E29/E28)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F18" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G18" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H18" s="6" t="e">
-        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="D18" s="12" t="e">
+        <f>(D22/D21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" s="12" t="e">
+        <f t="shared" ref="E18:H18" si="5">(E22/E21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" s="12" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G18" s="12" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H18" s="12" t="e">
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>104</v>
+      <c r="A19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
       </c>
       <c r="D19" s="6" t="e">
-        <f>(D24/D25)*100</f>
+        <f>(D30/D21)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="E19" s="6" t="e">
-        <f t="shared" ref="E19:H19" si="4">(E24/E25)*100</f>
+        <f t="shared" ref="E19:H19" si="6">(E30/E21)*100</f>
         <v>#VALUE!</v>
       </c>
       <c r="F19" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="G19" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="H19" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="6" t="e">
-        <f>(D24/D23)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E20" s="6" t="e">
-        <f t="shared" ref="E20:H20" si="5">(E24/E23)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F20" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G20" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H20" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="6" t="e">
-        <f>(D32/D25)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E21" s="6" t="e">
-        <f t="shared" ref="E21:H21" si="6">(E32/E25)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F21" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G21" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H21" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>67</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="11" t="e">
-        <f>D32/D9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E27" s="11" t="e">
-        <f t="shared" ref="E27:H27" si="7">E32/E9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F27" s="11" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G27" s="11" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H27" s="11" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>57</v>
+        <v>28</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>102</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/website/file/stock_template.xlsx
+++ b/website/file/stock_template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Working/Working/tienpd3.github.io/website/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F2C15A-245B-4A44-B818-B60901780F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FF596B-F78F-0346-B40A-2D53DDF91EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4720" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{5CAC4BF7-E1FA-2843-8AA4-0D9B30644349}"/>
   </bookViews>
   <sheets>
     <sheet name="Định giá" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>CỐ PHIẾU:</t>
   </si>
@@ -104,15 +105,9 @@
     <t xml:space="preserve">CÂN ĐỐI KẾ TOÁN </t>
   </si>
   <si>
-    <t xml:space="preserve">TÀI SẢN </t>
-  </si>
-  <si>
     <t>NỢ</t>
   </si>
   <si>
-    <t xml:space="preserve">VCSH </t>
-  </si>
-  <si>
     <t>TSVH</t>
   </si>
   <si>
@@ -188,21 +183,6 @@
     <t>#PEVal4</t>
   </si>
   <si>
-    <t>#ROAVal0</t>
-  </si>
-  <si>
-    <t>#ROAVal1</t>
-  </si>
-  <si>
-    <t>#ROAVal2</t>
-  </si>
-  <si>
-    <t>#ROAVal3</t>
-  </si>
-  <si>
-    <t>#ROAVal4</t>
-  </si>
-  <si>
     <t>#TTSVal0</t>
   </si>
   <si>
@@ -309,21 +289,164 @@
   </si>
   <si>
     <t>#EPSVal4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LƯU CHUYỂN TIỀN TỆ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. TỔ CHỨC NƯỚC NGOÀI %, NHÀ NƯỚC %, HĐQT %, KHỐI NGOẠI, KHỐI TỰ DOANH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NƯỚC NGOÀI : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHÀ NƯỚC : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHÁC : </t>
+  </si>
+  <si>
+    <t>1.5%</t>
+  </si>
+  <si>
+    <t>#TTSOldVal0</t>
+  </si>
+  <si>
+    <t>#TTSOldVal1</t>
+  </si>
+  <si>
+    <t>#TTSOldVal2</t>
+  </si>
+  <si>
+    <t>#TTSOldVal3</t>
+  </si>
+  <si>
+    <t>#TTSOldVal4</t>
+  </si>
+  <si>
+    <t>#NOOldVal0</t>
+  </si>
+  <si>
+    <t>#NOOldVal1</t>
+  </si>
+  <si>
+    <t>#NOOldVal2</t>
+  </si>
+  <si>
+    <t>#NOOldVal3</t>
+  </si>
+  <si>
+    <t>#NOOldVal4</t>
+  </si>
+  <si>
+    <t>#VCSHOldVal0</t>
+  </si>
+  <si>
+    <t>#VCSHOldVal1</t>
+  </si>
+  <si>
+    <t>#VCSHOldVal2</t>
+  </si>
+  <si>
+    <t>#VCSHOldVal3</t>
+  </si>
+  <si>
+    <t>#VCSHOldVal4</t>
+  </si>
+  <si>
+    <t>TÀI SẢN</t>
+  </si>
+  <si>
+    <t>VCSH (GAP)</t>
+  </si>
+  <si>
+    <t>VCSH</t>
+  </si>
+  <si>
+    <t>NỢ (GAP)</t>
+  </si>
+  <si>
+    <t>TÀI SẢN (GAP)</t>
+  </si>
+  <si>
+    <t>TSVH (GAP)</t>
+  </si>
+  <si>
+    <t>CPLH (GAP)</t>
+  </si>
+  <si>
+    <t>DOANH THU (GAP)</t>
+  </si>
+  <si>
+    <t>#DTTOldVal0</t>
+  </si>
+  <si>
+    <t>LNG (GAP)</t>
+  </si>
+  <si>
+    <t>#LNGOldVal0</t>
+  </si>
+  <si>
+    <t>LNST (GAP)</t>
+  </si>
+  <si>
+    <t>#LNSTOldVal0</t>
+  </si>
+  <si>
+    <t>#LNSTOldVal1</t>
+  </si>
+  <si>
+    <t>#LNSTOldVal2</t>
+  </si>
+  <si>
+    <t>#LNSTOldVal3</t>
+  </si>
+  <si>
+    <t>#LNSTOldVal4</t>
+  </si>
+  <si>
+    <t>#LNGOldVal1</t>
+  </si>
+  <si>
+    <t>#LNGOldVal2</t>
+  </si>
+  <si>
+    <t>#LNGOldVal3</t>
+  </si>
+  <si>
+    <t>#LNGOldVal4</t>
+  </si>
+  <si>
+    <t>#DTTOldVal1</t>
+  </si>
+  <si>
+    <t>#DTTOldVal2</t>
+  </si>
+  <si>
+    <t>#DTTOldVal3</t>
+  </si>
+  <si>
+    <t>#DTTOldVal4</t>
+  </si>
+  <si>
+    <t>Tỷ lệ LNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0&quot; tỷ&quot;;[Red]\-#,##0.0&quot; tỷ&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);[Red]\-#,##0.0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="#,##0.00,,,\ &quot; tỷ&quot;"/>
     <numFmt numFmtId="168" formatCode="0%_);[Red]\-0%"/>
+    <numFmt numFmtId="169" formatCode="#,#00%_);[Red]\-#,#00%"/>
+    <numFmt numFmtId="171" formatCode="0.0%_);[Red]\-0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,6 +466,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -390,33 +525,4050 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="401">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -726,522 +4878,894 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05457745-5968-AA42-8580-126BA301200F}">
-  <dimension ref="A4:J30"/>
+  <dimension ref="A4:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:H18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="4" max="8" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="4"/>
+    <col min="4" max="8" width="15.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="4"/>
+    <col min="10" max="10" width="9.83203125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>90</v>
+      <c r="A7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="12" t="e">
+      <c r="D8" s="9" t="e">
         <f t="shared" ref="D8:G8" si="0">IF(E7="", "", (100%*(D7-E7)/E7))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E8" s="12" t="e">
+      <c r="E8" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F8" s="12" t="e">
+      <c r="F8" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G8" s="12" t="e">
+      <c r="G8" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H8" s="12" t="str">
+      <c r="H8" s="9" t="str">
         <f>IF(I7="", "", (100%*(H7-I7)/I7))</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="H11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="H12" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>54</v>
+      <c r="D13" s="12" t="e">
+        <f>(D38/D21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" s="12" t="e">
+        <f>(E38/E21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" s="12" t="e">
+        <f>(F38/F21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" s="12" t="e">
+        <f>(G38/G21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H13" s="12" t="e">
+        <f>(H38/H21)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="12" t="e">
-        <f>(D30/D23)</f>
+        <f>(D38/D25)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E14" s="12" t="e">
-        <f t="shared" ref="E14:H14" si="1">(E30/E23)</f>
+        <f>(E38/E25)</f>
         <v>#VALUE!</v>
       </c>
       <c r="F14" s="12" t="e">
+        <f>(F38/F25)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G14" s="12" t="e">
+        <f>(G38/G25)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" s="12" t="e">
+        <f>(H38/H25)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="12" t="e">
+        <f>(D38/D31)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" s="12" t="e">
+        <f t="shared" ref="E15:H15" si="1">(E38/E31)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" s="12" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G14" s="12" t="e">
+      <c r="G15" s="12" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="12" t="e">
+      <c r="H15" s="12" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="12" t="e">
-        <f>(D30/D26)</f>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="12" t="e">
+        <f>(D33/D31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E15" s="12" t="e">
-        <f t="shared" ref="E15:H15" si="2">(E30/E26)</f>
+      <c r="E16" s="12" t="e">
+        <f t="shared" ref="E16:H16" si="2">(E33/E31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F15" s="12" t="e">
+      <c r="F16" s="12" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G15" s="12" t="e">
+      <c r="G16" s="12" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="12" t="e">
+      <c r="H16" s="12" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="12" t="e">
-        <f>(D27/D26)</f>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="12" t="e">
+        <f>(D23/D25)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E16" s="12" t="e">
-        <f t="shared" ref="E16:H16" si="3">(E27/E26)</f>
+      <c r="E17" s="12" t="e">
+        <f t="shared" ref="E17:H17" si="3">(E23/E25)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F16" s="12" t="e">
+      <c r="F17" s="12" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G16" s="12" t="e">
+      <c r="G17" s="12" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H16" s="12" t="e">
+      <c r="H17" s="12" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="12" t="e">
-        <f>(D22/D23)</f>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="12" t="e">
+        <f>(D23/D21)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E17" s="12" t="e">
-        <f t="shared" ref="E17:H17" si="4">(E22/E23)</f>
+      <c r="E18" s="12" t="e">
+        <f t="shared" ref="E18:H18" si="4">(E23/E21)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F17" s="12" t="e">
+      <c r="F18" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G17" s="12" t="e">
+      <c r="G18" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="12" t="e">
+      <c r="H18" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="12" t="e">
-        <f>(D22/D21)</f>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="9" t="e">
+        <f t="shared" ref="D35:G35" si="5">IF(E33="", "", (100%*(D33-E33)/E33))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E18" s="12" t="e">
-        <f t="shared" ref="E18:H18" si="5">(E22/E21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F18" s="12" t="e">
+      <c r="E35" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G18" s="12" t="e">
+      <c r="F35" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H18" s="12" t="e">
+      <c r="G35" s="9" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
+      <c r="H35" s="9" t="str">
+        <f>IF(I33="", "", (100%*(H33-I33)/I33))</f>
+        <v/>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="6" t="e">
-        <f>(D30/D21)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E19" s="6" t="e">
-        <f t="shared" ref="E19:H19" si="6">(E30/E21)*100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F19" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G19" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H19" s="6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>59</v>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>64</v>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>69</v>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>84</v>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="31" priority="36" stopIfTrue="1">
+      <formula>$D$22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="30" priority="35" stopIfTrue="1">
+      <formula>$D$34&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
+      <formula>$E$34&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="expression" dxfId="28" priority="33" stopIfTrue="1">
+      <formula>$F$34&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="expression" dxfId="27" priority="32">
+      <formula>$G$34&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="expression" dxfId="26" priority="31">
+      <formula>$H$34&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="25" priority="30">
+      <formula>$D$32&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="24" priority="29">
+      <formula>$E$32&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="expression" dxfId="23" priority="28">
+      <formula>$F$32&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="expression" dxfId="22" priority="27">
+      <formula>$G$32&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="expression" dxfId="21" priority="26">
+      <formula>$H$32&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="20" priority="25">
+      <formula>$D$39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" dxfId="19" priority="24">
+      <formula>$E$39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="expression" dxfId="18" priority="23">
+      <formula>$F$39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="expression" dxfId="17" priority="22">
+      <formula>$G$39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="expression" dxfId="16" priority="21" stopIfTrue="1">
+      <formula>$H$39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="expression" dxfId="15" priority="20">
+      <formula>$E$22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="14" priority="19">
+      <formula>$F$22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="expression" dxfId="13" priority="18">
+      <formula>$G$22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="expression" dxfId="12" priority="17">
+      <formula>$H$22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="11" priority="16">
+      <formula>$D$24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="10" priority="15">
+      <formula>$E$24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>$F$24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="8" priority="13">
+      <formula>$G$24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>$H$24&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="6" priority="11">
+      <formula>$D$26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="expression" dxfId="5" priority="10">
+      <formula>$E$26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>$F$26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>$G$26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>$H$26&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:H13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>"0.05"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:H14">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>"0.15"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9F685C-BE4D-954D-8A12-9AC06DF29CE3}">
+  <dimension ref="F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="14" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>